--- a/biology/Zoologie/Armadillidium/Armadillidium.xlsx
+++ b/biology/Zoologie/Armadillidium/Armadillidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armadillidium est un genre de cloportes, des crustacés terrestres. Les espèces d’Armadillidium sont souvent confondues avec des myriapodes tels que Glomeris marginata. Elles se caractérisent par leur capacité à se mettre en boule lorsqu'elles sont dérangées. Elles se nourrissent principalement de mousses, d'algues, d'écorces et d'autres matières organiques en décomposition. On les trouve communément dans des endroits humides tels que les feuilles en décomposition ou le sol. Armadillidium vulgare est l'espèce la plus représentée en Europe, et elle a été disséminée sur l'ensemble de la planète par les activités humaines.
 La coloration remarquable des jeunes A. klugii imite la forme de sablier rouge que porte les araignées veuves noires de Méditerranée Latrodectus tredecimguttatus. Il s'agit probablement d'un genre de mimétisme permettant d'éviter les prédateurs, ces derniers prenant cet animal sans danger pour une araignée venimeuse.
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a 178 espèces reconnues dans le genre Armadillidium[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a 178 espèces reconnues dans le genre Armadillidium :
 Armadillidium absoloni Strouhal, 1939 
 Armadillidium aegaeum Strouhal, 1929 
 Armadillidium aeginense Strouhal, 1939 
